--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>#</t>
   </si>
@@ -28,10 +28,19 @@
     <t>29959IN-BV</t>
   </si>
   <si>
+    <t>Rs.155,000.00</t>
+  </si>
+  <si>
     <t>15399T-B-BV</t>
   </si>
   <si>
+    <t>Rs.8,010.00</t>
+  </si>
+  <si>
     <t>20742IN-9FP-BL</t>
+  </si>
+  <si>
+    <t>Rs.14,700.00</t>
   </si>
   <si>
     <t>704794IN-BN</t>
@@ -57,15 +66,6 @@
   <si>
     <t>11543IN-4-AF</t>
   </si>
-  <si>
-    <t>Rs.155,000.00</t>
-  </si>
-  <si>
-    <t>Rs.8,010.00</t>
-  </si>
-  <si>
-    <t>Rs.14,700.00</t>
-  </si>
 </sst>
 </file>
 
@@ -73,8 +73,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -99,15 +99,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,9 +122,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,15 +144,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +167,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -175,7 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,13 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -204,9 +205,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,31 +243,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,25 +271,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,25 +301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +319,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +349,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,97 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,21 +487,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +530,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -580,148 +580,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,14 +1016,14 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" style="1" width="14.8571428571429" collapsed="true"/>
-    <col min="3" max="3" style="2" width="12.6285714285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="17.8571428571429" collapsed="true"/>
+    <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6285714285714" style="2"/>
+    <col min="4" max="4" width="17.8571428571429" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
@@ -1054,11 +1054,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
@@ -1066,11 +1066,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1078,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -1096,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9"/>
     </row>
@@ -1105,7 +1105,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9"/>
     </row>
@@ -1114,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9"/>
     </row>
@@ -1123,7 +1123,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
     </row>
@@ -1132,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="9"/>
     </row>
@@ -1141,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
     </row>

--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>#</t>
   </si>
@@ -66,6 +66,12 @@
   <si>
     <t>11543IN-4-AF</t>
   </si>
+  <si>
+    <t>Product Not Found</t>
+  </si>
+  <si>
+    <t>Rs.83,750.00</t>
+  </si>
 </sst>
 </file>
 
@@ -73,8 +79,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1021,9 +1027,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6285714285714" style="2"/>
-    <col min="4" max="4" width="17.8571428571429" style="3" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" style="1" width="14.8571428571429" collapsed="true"/>
+    <col min="3" max="3" style="2" width="12.6285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.8571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
@@ -1081,6 +1087,9 @@
         <v>9</v>
       </c>
       <c r="C5" s="9"/>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="7">
@@ -1090,6 +1099,9 @@
         <v>10</v>
       </c>
       <c r="C6" s="9"/>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="7">

--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>#</t>
   </si>
@@ -28,19 +28,10 @@
     <t>29959IN-BV</t>
   </si>
   <si>
-    <t>Rs.155,000.00</t>
-  </si>
-  <si>
     <t>15399T-B-BV</t>
   </si>
   <si>
-    <t>Rs.8,010.00</t>
-  </si>
-  <si>
     <t>20742IN-9FP-BL</t>
-  </si>
-  <si>
-    <t>Rs.14,700.00</t>
   </si>
   <si>
     <t>704794IN-BN</t>
@@ -67,6 +58,15 @@
     <t>11543IN-4-AF</t>
   </si>
   <si>
+    <t>Rs.155,000.00</t>
+  </si>
+  <si>
+    <t>Rs.8,010.00</t>
+  </si>
+  <si>
+    <t>Rs.14,700.00</t>
+  </si>
+  <si>
     <t>Product Not Found</t>
   </si>
   <si>
@@ -80,8 +80,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -105,9 +105,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,44 +157,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,14 +178,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,18 +197,40 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,33 +242,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,25 +277,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +325,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,43 +379,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,37 +415,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,37 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +497,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -512,15 +536,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -532,21 +547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,148 +586,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
@@ -1060,11 +1060,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
@@ -1072,31 +1072,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" t="s">
@@ -1108,7 +1108,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9"/>
     </row>
@@ -1117,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9"/>
     </row>
@@ -1126,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="9"/>
     </row>
@@ -1135,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="9"/>
     </row>
@@ -1144,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="9"/>
     </row>
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9"/>
     </row>

--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>#</t>
   </si>

--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>#</t>
   </si>

--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -28,19 +28,37 @@
     <t>29959IN-BV</t>
   </si>
   <si>
+    <t>Rs.155,000.00</t>
+  </si>
+  <si>
     <t>15399T-B-BV</t>
+  </si>
+  <si>
+    <t>Rs.8,010.00</t>
   </si>
   <si>
     <t>20742IN-9FP-BL</t>
   </si>
   <si>
+    <t>Rs.14,700.00</t>
+  </si>
+  <si>
     <t>704794IN-BN</t>
+  </si>
+  <si>
+    <t>Product Not Found</t>
   </si>
   <si>
     <t>31014IN-0</t>
   </si>
   <si>
+    <t>Rs.83,750.00</t>
+  </si>
+  <si>
     <t>77142IN-S-HG1</t>
+  </si>
+  <si>
+    <t>Rs.70,700.00</t>
   </si>
   <si>
     <t>77142IN-S-HP1</t>
@@ -57,21 +75,6 @@
   <si>
     <t>11543IN-4-AF</t>
   </si>
-  <si>
-    <t>Rs.155,000.00</t>
-  </si>
-  <si>
-    <t>Rs.8,010.00</t>
-  </si>
-  <si>
-    <t>Rs.14,700.00</t>
-  </si>
-  <si>
-    <t>Product Not Found</t>
-  </si>
-  <si>
-    <t>Rs.83,750.00</t>
-  </si>
 </sst>
 </file>
 
@@ -79,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -106,7 +109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,22 +119,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,14 +141,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,6 +176,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -220,6 +207,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
@@ -228,7 +223,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,8 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,13 +280,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,13 +316,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,79 +376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,31 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,25 +412,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,41 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,6 +500,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +538,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -577,16 +578,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,130 +607,130 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,14 +1025,14 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" style="1" width="14.8571428571429" collapsed="true"/>
-    <col min="3" max="3" style="2" width="12.6285714285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="17.8571428571429" collapsed="true"/>
+    <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6285714285714" style="2"/>
+    <col min="4" max="4" width="17.8571428571429" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
@@ -1052,7 +1055,7 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
@@ -1060,11 +1063,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
@@ -1072,11 +1075,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
@@ -1084,11 +1087,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
@@ -1096,28 +1099,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9"/>
     </row>
@@ -1126,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9"/>
     </row>
@@ -1135,7 +1141,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9"/>
     </row>
@@ -1144,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" s="9"/>
     </row>
@@ -1153,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9"/>
     </row>

--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -82,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1030,9 +1030,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6285714285714" style="2"/>
-    <col min="4" max="4" width="17.8571428571429" style="3" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" style="1" width="14.8571428571429" collapsed="true"/>
+    <col min="3" max="3" style="2" width="12.6285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.8571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">

--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -28,37 +28,19 @@
     <t>29959IN-BV</t>
   </si>
   <si>
-    <t>Rs.155,000.00</t>
-  </si>
-  <si>
     <t>15399T-B-BV</t>
-  </si>
-  <si>
-    <t>Rs.8,010.00</t>
   </si>
   <si>
     <t>20742IN-9FP-BL</t>
   </si>
   <si>
-    <t>Rs.14,700.00</t>
-  </si>
-  <si>
     <t>704794IN-BN</t>
-  </si>
-  <si>
-    <t>Product Not Found</t>
   </si>
   <si>
     <t>31014IN-0</t>
   </si>
   <si>
-    <t>Rs.83,750.00</t>
-  </si>
-  <si>
     <t>77142IN-S-HG1</t>
-  </si>
-  <si>
-    <t>Rs.70,700.00</t>
   </si>
   <si>
     <t>77142IN-S-HP1</t>
@@ -74,6 +56,24 @@
   </si>
   <si>
     <t>11543IN-4-AF</t>
+  </si>
+  <si>
+    <t>Rs.155,000.00</t>
+  </si>
+  <si>
+    <t>Rs.8,010.00</t>
+  </si>
+  <si>
+    <t>Rs.14,700.00</t>
+  </si>
+  <si>
+    <t>Product Not Found</t>
+  </si>
+  <si>
+    <t>Rs.83,750.00</t>
+  </si>
+  <si>
+    <t>Product Discontinued</t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,14 +123,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +147,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,14 +183,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -200,7 +199,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -209,9 +208,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,15 +221,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,7 +238,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,7 +280,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,49 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,19 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,97 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +485,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,15 +561,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -589,7 +589,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,28 +610,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,97 +640,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
@@ -1063,11 +1063,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
@@ -1075,11 +1075,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
@@ -1087,11 +1087,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
@@ -1099,11 +1099,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -1111,11 +1111,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
@@ -1123,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9"/>
     </row>
@@ -1132,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="9"/>
     </row>
@@ -1141,7 +1141,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C10" s="9"/>
     </row>
@@ -1150,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" s="9"/>
     </row>
@@ -1159,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9"/>
     </row>

--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -28,19 +28,37 @@
     <t>29959IN-BV</t>
   </si>
   <si>
+    <t>Rs.155,000.00</t>
+  </si>
+  <si>
     <t>15399T-B-BV</t>
+  </si>
+  <si>
+    <t>Rs.8,010.00</t>
   </si>
   <si>
     <t>20742IN-9FP-BL</t>
   </si>
   <si>
+    <t>Rs.14,700.00</t>
+  </si>
+  <si>
     <t>704794IN-BN</t>
+  </si>
+  <si>
+    <t>Product Not Found</t>
   </si>
   <si>
     <t>31014IN-0</t>
   </si>
   <si>
+    <t>Rs.83,750.00</t>
+  </si>
+  <si>
     <t>77142IN-S-HG1</t>
+  </si>
+  <si>
+    <t>Product Discontinued</t>
   </si>
   <si>
     <t>77142IN-S-HP1</t>
@@ -57,24 +75,6 @@
   <si>
     <t>11543IN-4-AF</t>
   </si>
-  <si>
-    <t>Rs.155,000.00</t>
-  </si>
-  <si>
-    <t>Rs.8,010.00</t>
-  </si>
-  <si>
-    <t>Rs.14,700.00</t>
-  </si>
-  <si>
-    <t>Product Not Found</t>
-  </si>
-  <si>
-    <t>Rs.83,750.00</t>
-  </si>
-  <si>
-    <t>Product Discontinued</t>
-  </si>
 </sst>
 </file>
 
@@ -82,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -109,16 +109,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,10 +122,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,16 +207,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,13 +258,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -280,7 +280,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,55 +310,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,19 +340,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,25 +412,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,31 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +485,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,15 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -589,49 +589,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,97 +640,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,14 +1025,14 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" style="1" width="14.8571428571429" collapsed="true"/>
-    <col min="3" max="3" style="2" width="12.6285714285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="17.8571428571429" collapsed="true"/>
+    <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6285714285714" style="2"/>
+    <col min="4" max="4" width="21.8571428571429" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
@@ -1063,11 +1063,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
@@ -1075,11 +1075,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
@@ -1087,11 +1087,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
@@ -1099,11 +1099,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -1111,11 +1111,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
@@ -1123,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9"/>
     </row>
@@ -1132,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9"/>
     </row>
@@ -1141,7 +1141,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9"/>
     </row>
@@ -1150,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" s="9"/>
     </row>
@@ -1159,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9"/>
     </row>

--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -82,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1030,9 +1030,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6285714285714" style="2"/>
-    <col min="4" max="4" width="21.8571428571429" style="3" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" style="1" width="14.8571428571429" collapsed="true"/>
+    <col min="3" max="3" style="2" width="12.6285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="21.8571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">

--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>#</t>
   </si>

--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="9570" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>#</t>
   </si>
@@ -28,52 +28,25 @@
     <t>29959IN-BV</t>
   </si>
   <si>
-    <t>Rs.155,000.00</t>
-  </si>
-  <si>
     <t>15399T-B-BV</t>
-  </si>
-  <si>
-    <t>Rs.8,010.00</t>
   </si>
   <si>
     <t>20742IN-9FP-BL</t>
   </si>
   <si>
-    <t>Rs.14,700.00</t>
-  </si>
-  <si>
-    <t>704794IN-BN</t>
-  </si>
-  <si>
-    <t>Product Not Found</t>
+    <t>20742IN-9FP-RGD</t>
   </si>
   <si>
     <t>31014IN-0</t>
   </si>
   <si>
-    <t>Rs.83,750.00</t>
-  </si>
-  <si>
-    <t>77142IN-S-HG1</t>
-  </si>
-  <si>
-    <t>Product Discontinued</t>
+    <t>11543IN-4-AF</t>
   </si>
   <si>
     <t>77142IN-S-HP1</t>
   </si>
   <si>
     <t>20742IN-9FP-CP</t>
-  </si>
-  <si>
-    <t>20742IN-9FP-RGD</t>
-  </si>
-  <si>
-    <t>21702IN-NA</t>
-  </si>
-  <si>
-    <t>11543IN-4-AF</t>
   </si>
 </sst>
 </file>
@@ -82,9 +55,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -109,29 +82,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -145,16 +104,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +114,51 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,6 +174,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,36 +218,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -280,43 +253,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,73 +277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +301,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,37 +421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,15 +471,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -518,30 +482,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +518,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -589,148 +562,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,14 +998,14 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D11" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" style="1" width="14.8571428571429" collapsed="true"/>
-    <col min="3" max="3" style="2" width="12.6285714285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="21.8571428571429" collapsed="true"/>
+    <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6285714285714" style="2"/>
+    <col min="4" max="4" width="21.8571428571429" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
@@ -1054,112 +1027,93 @@
         <v>3</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D2"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D3"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
+      <c r="D4"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
+      <c r="D5"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
+      <c r="D6"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:3">
+      <c r="D7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:3">
+      <c r="D8"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="9"/>
+      <c r="D9"/>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" s="9"/>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" s="9"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="7">
         <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C12" s="9"/>
     </row>

--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9570" windowHeight="7545"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -25,28 +25,145 @@
     <t>Price</t>
   </si>
   <si>
+    <t>15399T-B-BV</t>
+  </si>
+  <si>
+    <t>5171T-CM-0</t>
+  </si>
+  <si>
     <t>29959IN-BV</t>
   </si>
   <si>
-    <t>15399T-B-BV</t>
+    <t>17629IN-SM-0</t>
   </si>
   <si>
     <t>20742IN-9FP-BL</t>
   </si>
   <si>
+    <t>16817IN-2SR-0</t>
+  </si>
+  <si>
     <t>20742IN-9FP-RGD</t>
+  </si>
+  <si>
+    <t>29583IN-4-CP</t>
   </si>
   <si>
     <t>31014IN-0</t>
   </si>
   <si>
+    <t>29584IN-4-CP</t>
+  </si>
+  <si>
     <t>11543IN-4-AF</t>
+  </si>
+  <si>
+    <t>29017IN-SS-0</t>
   </si>
   <si>
     <t>77142IN-S-HP1</t>
   </si>
   <si>
+    <t>99966IN-4-CP</t>
+  </si>
+  <si>
     <t>20742IN-9FP-CP</t>
+  </si>
+  <si>
+    <t>72796T-CP</t>
+  </si>
+  <si>
+    <t>29992IN-CP</t>
+  </si>
+  <si>
+    <t>72568T-CP</t>
+  </si>
+  <si>
+    <t>72572T-CP</t>
+  </si>
+  <si>
+    <t>72791T-CP</t>
+  </si>
+  <si>
+    <t>1404IN-K-0</t>
+  </si>
+  <si>
+    <t>23107IN-UF-0</t>
+  </si>
+  <si>
+    <t>20701-0</t>
+  </si>
+  <si>
+    <t>16817IN-SS-RGD</t>
+  </si>
+  <si>
+    <t>22642IN-4FP-AF</t>
+  </si>
+  <si>
+    <t>22642IN-4FP-CP</t>
+  </si>
+  <si>
+    <t>29173IN-0</t>
+  </si>
+  <si>
+    <t>29174IN-S-0</t>
+  </si>
+  <si>
+    <t>24563IN-0</t>
+  </si>
+  <si>
+    <t>24562IN-0</t>
+  </si>
+  <si>
+    <t>24561IN-0</t>
+  </si>
+  <si>
+    <t>24560IN-0</t>
+  </si>
+  <si>
+    <t>77739T-SL-0</t>
+  </si>
+  <si>
+    <t>28786IN-0</t>
+  </si>
+  <si>
+    <t>30375IN-0</t>
+  </si>
+  <si>
+    <t>9301T-ZX-BV</t>
+  </si>
+  <si>
+    <t>9301T-ZX-RGD</t>
+  </si>
+  <si>
+    <t>33932IN-0</t>
+  </si>
+  <si>
+    <t>33933IN-0</t>
+  </si>
+  <si>
+    <t>Rs.8,010.00</t>
+  </si>
+  <si>
+    <t>Rs.155,000.00</t>
+  </si>
+  <si>
+    <t>Rs.14,700.00</t>
+  </si>
+  <si>
+    <t>Rs.15,800.00</t>
+  </si>
+  <si>
+    <t>Rs.83,750.00</t>
+  </si>
+  <si>
+    <t>Rs.5,330.00</t>
+  </si>
+  <si>
+    <t>Product Not Found</t>
+  </si>
+  <si>
+    <t>Rs.10,500.00</t>
   </si>
 </sst>
 </file>
@@ -55,11 +172,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -81,6 +198,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -88,11 +225,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,23 +240,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,30 +257,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,13 +273,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,15 +302,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,109 +376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,43 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +412,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,12 +454,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -462,26 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,16 +621,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -543,8 +663,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,152 +706,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -733,6 +877,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -995,17 +1145,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D2:D11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6285714285714" style="2"/>
-    <col min="4" max="4" width="21.8571428571429" style="3" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" style="1" width="14.8571428571429" collapsed="true"/>
+    <col min="3" max="3" style="2" width="12.6285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="21.8571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
@@ -1019,199 +1169,346 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:3">
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:3">
+      <c r="D10"/>
+      <c r="K10" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="C11" s="9"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:3">
+      <c r="D11"/>
+      <c r="K11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="7"/>
+      <c r="D12"/>
+      <c r="K12" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:11">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
       <c r="C13" s="9"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="7"/>
+      <c r="D13"/>
+      <c r="K13" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:11">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
       <c r="C14" s="9"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="7"/>
+      <c r="D14"/>
+      <c r="K14" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:11">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
       <c r="C15" s="9"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="7"/>
+      <c r="D15"/>
+      <c r="K15" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:11">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
       <c r="C16" s="9"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
+      <c r="D16"/>
+      <c r="K16" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:11">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
       <c r="C17" s="9"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
+      <c r="K17" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:11">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
       <c r="C18" s="9"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
+      <c r="K18" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:11">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
       <c r="C19" s="9"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
+      <c r="K19" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:11">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
       <c r="C20" s="9"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
+      <c r="K20" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:11">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
       <c r="C21" s="9"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
+      <c r="K21" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:11">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
       <c r="C22" s="9"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
+      <c r="K22" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:11">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
       <c r="C23" s="9"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
+      <c r="K23" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:11">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
       <c r="C24" s="9"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
+      <c r="K24" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:11">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
       <c r="C25" s="9"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
+      <c r="K25" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:11">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
       <c r="C26" s="9"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
+      <c r="K26" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:11">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
       <c r="C27" s="9"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
+      <c r="K27" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:11">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
       <c r="C28" s="9"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
+      <c r="K28" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:11">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
       <c r="C29" s="9"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
+      <c r="K29" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:11">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
       <c r="C30" s="9"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
+      <c r="K30" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:11">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
       <c r="C31" s="9"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
+      <c r="K31" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:11">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
       <c r="C32" s="9"/>
+      <c r="K32" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="33" customHeight="1" spans="1:3">
       <c r="A33" s="7"/>

--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -28,10 +28,16 @@
     <t>15399T-B-BV</t>
   </si>
   <si>
+    <t>Rs.8,010.00</t>
+  </si>
+  <si>
     <t>5171T-CM-0</t>
   </si>
   <si>
     <t>29959IN-BV</t>
+  </si>
+  <si>
+    <t>Rs.155,000.00</t>
   </si>
   <si>
     <t>17629IN-SM-0</t>
@@ -40,10 +46,16 @@
     <t>20742IN-9FP-BL</t>
   </si>
   <si>
+    <t>Rs.14,700.00</t>
+  </si>
+  <si>
     <t>16817IN-2SR-0</t>
   </si>
   <si>
     <t>20742IN-9FP-RGD</t>
+  </si>
+  <si>
+    <t>Rs.15,800.00</t>
   </si>
   <si>
     <t>29583IN-4-CP</t>
@@ -52,10 +64,16 @@
     <t>31014IN-0</t>
   </si>
   <si>
+    <t>Rs.83,750.00</t>
+  </si>
+  <si>
     <t>29584IN-4-CP</t>
   </si>
   <si>
     <t>11543IN-4-AF</t>
+  </si>
+  <si>
+    <t>Rs.5,330.00</t>
   </si>
   <si>
     <t>29017IN-SS-0</t>
@@ -64,10 +82,16 @@
     <t>77142IN-S-HP1</t>
   </si>
   <si>
+    <t>Product Not Found</t>
+  </si>
+  <si>
     <t>99966IN-4-CP</t>
   </si>
   <si>
     <t>20742IN-9FP-CP</t>
+  </si>
+  <si>
+    <t>Rs.10,500.00</t>
   </si>
   <si>
     <t>72796T-CP</t>
@@ -141,30 +165,6 @@
   <si>
     <t>33933IN-0</t>
   </si>
-  <si>
-    <t>Rs.8,010.00</t>
-  </si>
-  <si>
-    <t>Rs.155,000.00</t>
-  </si>
-  <si>
-    <t>Rs.14,700.00</t>
-  </si>
-  <si>
-    <t>Rs.15,800.00</t>
-  </si>
-  <si>
-    <t>Rs.83,750.00</t>
-  </si>
-  <si>
-    <t>Rs.5,330.00</t>
-  </si>
-  <si>
-    <t>Product Not Found</t>
-  </si>
-  <si>
-    <t>Rs.10,500.00</t>
-  </si>
 </sst>
 </file>
 
@@ -173,8 +173,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -211,8 +211,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,17 +227,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,7 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +269,13 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,39 +310,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,7 +326,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,37 +382,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,12 +412,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -448,7 +424,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,67 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,19 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,13 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,6 +606,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -645,6 +654,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -656,24 +674,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,13 +706,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,7 +724,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,121 +733,121 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1177,11 +1177,11 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:11">
@@ -1189,15 +1189,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
@@ -1205,15 +1205,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
@@ -1221,15 +1221,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:11">
@@ -1237,15 +1237,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -1253,15 +1253,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -1269,15 +1269,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
@@ -1285,15 +1285,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
@@ -1303,7 +1303,7 @@
       <c r="C10" s="9"/>
       <c r="D10"/>
       <c r="K10" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
@@ -1313,7 +1313,7 @@
       <c r="C11" s="9"/>
       <c r="D11"/>
       <c r="K11" s="10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
@@ -1323,7 +1323,7 @@
       <c r="C12" s="9"/>
       <c r="D12"/>
       <c r="K12" s="10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
@@ -1333,7 +1333,7 @@
       <c r="C13" s="9"/>
       <c r="D13"/>
       <c r="K13" s="10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
@@ -1343,7 +1343,7 @@
       <c r="C14" s="9"/>
       <c r="D14"/>
       <c r="K14" s="10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
@@ -1353,7 +1353,7 @@
       <c r="C15" s="9"/>
       <c r="D15"/>
       <c r="K15" s="10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:11">
@@ -1363,7 +1363,7 @@
       <c r="C16" s="9"/>
       <c r="D16"/>
       <c r="K16" s="10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:11">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C17" s="9"/>
       <c r="K17" s="10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:11">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C18" s="9"/>
       <c r="K18" s="10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:11">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="C19" s="9"/>
       <c r="K19" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="C20" s="9"/>
       <c r="K20" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:11">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C21" s="9"/>
       <c r="K21" s="10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:11">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="C22" s="9"/>
       <c r="K22" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:11">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="C23" s="9"/>
       <c r="K23" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="C24" s="9"/>
       <c r="K24" s="10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="C25" s="9"/>
       <c r="K25" s="10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:11">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C26" s="9"/>
       <c r="K26" s="10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C27" s="9"/>
       <c r="K27" s="11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="C28" s="9"/>
       <c r="K28" s="10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="C29" s="9"/>
       <c r="K29" s="10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:11">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C30" s="9"/>
       <c r="K30" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:11">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C31" s="9"/>
       <c r="K31" s="11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:11">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C32" s="9"/>
       <c r="K32" s="11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:3">

--- a/KohlerAutomation/Data/Cost.xlsx
+++ b/KohlerAutomation/Data/Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -28,79 +28,64 @@
     <t>15399T-B-BV</t>
   </si>
   <si>
-    <t>Rs.8,010.00</t>
-  </si>
-  <si>
     <t>5171T-CM-0</t>
   </si>
   <si>
     <t>29959IN-BV</t>
   </si>
   <si>
-    <t>Rs.155,000.00</t>
+    <t>17629IN-SM-0</t>
   </si>
   <si>
-    <t>17629IN-SM-0</t>
+    <t>20742IN-9FP-RGD</t>
+  </si>
+  <si>
+    <t>16817IN-2SR-0</t>
+  </si>
+  <si>
+    <t>31014IN-0</t>
+  </si>
+  <si>
+    <t>29583IN-4-CP</t>
+  </si>
+  <si>
+    <t>11543IN-4-AF</t>
+  </si>
+  <si>
+    <t>29584IN-4-CP</t>
+  </si>
+  <si>
+    <t>77142IN-S-HP1</t>
+  </si>
+  <si>
+    <t>29017IN-SS-0</t>
+  </si>
+  <si>
+    <t>20742IN-9FP-CP</t>
+  </si>
+  <si>
+    <t>99966IN-4-CP</t>
+  </si>
+  <si>
+    <t>9301T-ZX-BV</t>
+  </si>
+  <si>
+    <t>72796T-CP</t>
   </si>
   <si>
     <t>20742IN-9FP-BL</t>
   </si>
   <si>
-    <t>Rs.14,700.00</t>
-  </si>
-  <si>
-    <t>16817IN-2SR-0</t>
-  </si>
-  <si>
-    <t>20742IN-9FP-RGD</t>
-  </si>
-  <si>
-    <t>Rs.15,800.00</t>
-  </si>
-  <si>
-    <t>29583IN-4-CP</t>
-  </si>
-  <si>
-    <t>31014IN-0</t>
-  </si>
-  <si>
-    <t>Rs.83,750.00</t>
-  </si>
-  <si>
-    <t>29584IN-4-CP</t>
-  </si>
-  <si>
-    <t>11543IN-4-AF</t>
-  </si>
-  <si>
-    <t>Rs.5,330.00</t>
-  </si>
-  <si>
-    <t>29017IN-SS-0</t>
-  </si>
-  <si>
-    <t>77142IN-S-HP1</t>
-  </si>
-  <si>
-    <t>Product Not Found</t>
-  </si>
-  <si>
-    <t>99966IN-4-CP</t>
-  </si>
-  <si>
-    <t>20742IN-9FP-CP</t>
-  </si>
-  <si>
-    <t>Rs.10,500.00</t>
-  </si>
-  <si>
-    <t>72796T-CP</t>
-  </si>
-  <si>
     <t>29992IN-CP</t>
   </si>
   <si>
+    <t>33932IN-0</t>
+  </si>
+  <si>
     <t>72568T-CP</t>
+  </si>
+  <si>
+    <t>33933IN-0</t>
   </si>
   <si>
     <t>72572T-CP</t>
@@ -154,16 +139,7 @@
     <t>30375IN-0</t>
   </si>
   <si>
-    <t>9301T-ZX-BV</t>
-  </si>
-  <si>
     <t>9301T-ZX-RGD</t>
-  </si>
-  <si>
-    <t>33932IN-0</t>
-  </si>
-  <si>
-    <t>33933IN-0</t>
   </si>
 </sst>
 </file>
@@ -171,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -205,9 +181,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,24 +217,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,7 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +247,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -273,24 +263,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,15 +285,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,7 +310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,7 +318,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,7 +358,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,31 +448,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,139 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,23 +585,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,15 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -674,6 +626,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,148 +682,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,14 +1124,14 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" style="1" width="14.8571428571429" collapsed="true"/>
-    <col min="3" max="3" style="2" width="12.6285714285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="21.8571428571429" collapsed="true"/>
+    <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6285714285714" style="2"/>
+    <col min="4" max="4" width="21.8571428571429" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
@@ -1176,12 +1152,10 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D2"/>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:11">
@@ -1189,63 +1163,55 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3"/>
       <c r="J3" s="8"/>
       <c r="K3" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4"/>
       <c r="J4" s="8"/>
       <c r="K4" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>15</v>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
+      <c r="D6"/>
       <c r="J6" s="8"/>
       <c r="K6" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -1253,15 +1219,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
+      <c r="D7"/>
       <c r="J7" s="1"/>
       <c r="K7" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -1269,61 +1233,66 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
+      <c r="D8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
+      <c r="D9"/>
       <c r="J9" s="1"/>
       <c r="K9" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="7">
         <v>9</v>
       </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10"/>
       <c r="K10" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="7">
         <v>10</v>
       </c>
+      <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11"/>
       <c r="K11" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="7">
         <v>11</v>
       </c>
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12"/>
       <c r="K12" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
@@ -1333,7 +1302,7 @@
       <c r="C13" s="9"/>
       <c r="D13"/>
       <c r="K13" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
@@ -1343,7 +1312,7 @@
       <c r="C14" s="9"/>
       <c r="D14"/>
       <c r="K14" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
@@ -1353,7 +1322,7 @@
       <c r="C15" s="9"/>
       <c r="D15"/>
       <c r="K15" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:11">
@@ -1363,7 +1332,7 @@
       <c r="C16" s="9"/>
       <c r="D16"/>
       <c r="K16" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:11">
@@ -1372,7 +1341,7 @@
       </c>
       <c r="C17" s="9"/>
       <c r="K17" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:11">
@@ -1381,7 +1350,7 @@
       </c>
       <c r="C18" s="9"/>
       <c r="K18" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:11">
@@ -1390,7 +1359,7 @@
       </c>
       <c r="C19" s="9"/>
       <c r="K19" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
@@ -1399,7 +1368,7 @@
       </c>
       <c r="C20" s="9"/>
       <c r="K20" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:11">
@@ -1408,7 +1377,7 @@
       </c>
       <c r="C21" s="9"/>
       <c r="K21" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:11">
@@ -1417,7 +1386,7 @@
       </c>
       <c r="C22" s="9"/>
       <c r="K22" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:11">
@@ -1426,7 +1395,7 @@
       </c>
       <c r="C23" s="9"/>
       <c r="K23" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
@@ -1435,7 +1404,7 @@
       </c>
       <c r="C24" s="9"/>
       <c r="K24" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
@@ -1444,7 +1413,7 @@
       </c>
       <c r="C25" s="9"/>
       <c r="K25" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:11">
@@ -1453,7 +1422,7 @@
       </c>
       <c r="C26" s="9"/>
       <c r="K26" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
@@ -1462,7 +1431,7 @@
       </c>
       <c r="C27" s="9"/>
       <c r="K27" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
@@ -1471,7 +1440,7 @@
       </c>
       <c r="C28" s="9"/>
       <c r="K28" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
@@ -1480,7 +1449,7 @@
       </c>
       <c r="C29" s="9"/>
       <c r="K29" s="10" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:11">
@@ -1489,7 +1458,7 @@
       </c>
       <c r="C30" s="9"/>
       <c r="K30" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:11">
@@ -1498,7 +1467,7 @@
       </c>
       <c r="C31" s="9"/>
       <c r="K31" s="11" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:11">
@@ -1507,7 +1476,7 @@
       </c>
       <c r="C32" s="9"/>
       <c r="K32" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:3">
